--- a/results/xls/remote-payload-yes.xlsx
+++ b/results/xls/remote-payload-yes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agabaisaac/iot/mist-framework/results/csv/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agabaisaac/iot/mist-framework/results/xls/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1340" yWindow="440" windowWidth="28800" windowHeight="17620" tabRatio="500"/>
+    <workbookView xWindow="1040" yWindow="1680" windowWidth="27760" windowHeight="16380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="remote-payload-yes" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="15">
   <si>
     <t>nuV9S</t>
   </si>
@@ -87,12 +87,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,9 +125,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -387,15 +408,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="28.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -409,7 +433,7 @@
         <v>1490730000000</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -422,8 +446,14 @@
       <c r="D2" s="1">
         <v>1490730000000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>25.24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -436,8 +466,30 @@
       <c r="D3" s="1">
         <v>1490730000000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>25.24</v>
+      </c>
+      <c r="I3">
+        <v>5.7709999999999999</v>
+      </c>
+      <c r="J3">
+        <v>24.013999999999999</v>
+      </c>
+      <c r="K3">
+        <v>5.5519999999999996</v>
+      </c>
+      <c r="L3">
+        <v>8.1430000000000007</v>
+      </c>
+      <c r="M3" s="4">
+        <f>AVERAGE(H3:L3)</f>
+        <v>13.744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -450,8 +502,15 @@
       <c r="D4" s="1">
         <v>1490730000000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <v>59.317</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -464,8 +523,30 @@
       <c r="D5" s="1">
         <v>1490730000000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>59.317</v>
+      </c>
+      <c r="I5">
+        <v>27.234999999999999</v>
+      </c>
+      <c r="J5">
+        <v>72.822999999999993</v>
+      </c>
+      <c r="K5">
+        <v>14.231</v>
+      </c>
+      <c r="L5">
+        <v>38.591000000000001</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" ref="M4:M9" si="0">AVERAGE(H5:L5)</f>
+        <v>42.439399999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -478,8 +559,15 @@
       <c r="D6" s="1">
         <v>1490730000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <v>113.245</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -492,8 +580,30 @@
       <c r="D7" s="1">
         <v>1490730000000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>113.245</v>
+      </c>
+      <c r="I7">
+        <v>97.414000000000001</v>
+      </c>
+      <c r="J7">
+        <v>56.16</v>
+      </c>
+      <c r="K7">
+        <v>132.208</v>
+      </c>
+      <c r="L7">
+        <v>105.754</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="0"/>
+        <v>100.9562</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -506,8 +616,15 @@
       <c r="D8" s="1">
         <v>1490730000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <v>2.1389999999999998</v>
+      </c>
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -520,8 +637,56 @@
       <c r="D9" s="1">
         <v>1490730000000</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <v>2.1389999999999998</v>
+      </c>
+      <c r="I9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J9">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="K9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="L9">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="0"/>
+        <v>0.44419999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H10" s="3">
+        <f>SUM(H3:H9)</f>
+        <v>199.94100000000003</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" ref="I10:L10" si="1">SUM(I3:I9)</f>
+        <v>130.43600000000001</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="1"/>
+        <v>153.01199999999997</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="1"/>
+        <v>152.00399999999999</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="1"/>
+        <v>152.52600000000001</v>
+      </c>
+      <c r="M10" s="2">
+        <f>SUM(M3:M9)</f>
+        <v>157.5838</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -535,7 +700,7 @@
         <v>1490730000000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -548,8 +713,11 @@
       <c r="D12" s="1">
         <v>1490730000000</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12">
+        <v>5.7709999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -563,7 +731,7 @@
         <v>1490730000000</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -576,8 +744,11 @@
       <c r="D14" s="1">
         <v>1490730000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14">
+        <v>27.234999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -591,7 +762,7 @@
         <v>1490730000000</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -604,8 +775,11 @@
       <c r="D16" s="1">
         <v>1490730000000</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16">
+        <v>97.414000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -619,7 +793,7 @@
         <v>1490730000000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -632,8 +806,11 @@
       <c r="D18" s="1">
         <v>1490730000000</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -647,7 +824,7 @@
         <v>1490730000000</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -661,7 +838,7 @@
         <v>1490730000000</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -674,8 +851,11 @@
       <c r="D22" s="1">
         <v>1490730000000</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E22">
+        <v>24.013999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -689,7 +869,7 @@
         <v>1490730000000</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -702,8 +882,11 @@
       <c r="D24" s="1">
         <v>1490730000000</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E24">
+        <v>72.822999999999993</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -717,7 +900,7 @@
         <v>1490730000000</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -730,8 +913,11 @@
       <c r="D26" s="1">
         <v>1490730000000</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E26">
+        <v>56.16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -745,7 +931,7 @@
         <v>1490730000000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -758,8 +944,11 @@
       <c r="D28" s="1">
         <v>1490730000000</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E28">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -773,7 +962,7 @@
         <v>1490730000000</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -787,7 +976,7 @@
         <v>1490730000000</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -800,8 +989,11 @@
       <c r="D32" s="1">
         <v>1490730000000</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E32">
+        <v>5.5519999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -815,7 +1007,7 @@
         <v>1490730000000</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -828,8 +1020,11 @@
       <c r="D34" s="1">
         <v>1490730000000</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E34">
+        <v>14.231</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -843,7 +1038,7 @@
         <v>1490730000000</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -856,8 +1051,11 @@
       <c r="D36" s="1">
         <v>1490730000000</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E36">
+        <v>132.208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -871,7 +1069,7 @@
         <v>1490730000000</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -884,8 +1082,11 @@
       <c r="D38" s="1">
         <v>1490730000000</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E38">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -899,7 +1100,7 @@
         <v>1490730000000</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -913,7 +1114,7 @@
         <v>1490730000000</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -926,8 +1127,11 @@
       <c r="D42" s="1">
         <v>1490730000000</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E42">
+        <v>8.1430000000000007</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -941,7 +1145,7 @@
         <v>1490730000000</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>14</v>
       </c>
@@ -954,8 +1158,11 @@
       <c r="D44" s="1">
         <v>1490730000000</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E44">
+        <v>38.591000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>14</v>
       </c>
@@ -969,7 +1176,7 @@
         <v>1490730000000</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>14</v>
       </c>
@@ -982,8 +1189,11 @@
       <c r="D46" s="1">
         <v>1490730000000</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46">
+        <v>105.754</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>14</v>
       </c>
@@ -997,7 +1207,7 @@
         <v>1490730000000</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -1009,6 +1219,9 @@
       </c>
       <c r="D48" s="1">
         <v>1490730000000</v>
+      </c>
+      <c r="E48">
+        <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
